--- a/utemterv.xlsx
+++ b/utemterv.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmarci94\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmarci94\IdeaProjects\me-fdsz-be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D847AF4-85F8-40FA-9FB6-578186963395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F6FDB-3115-4172-985C-AF44B1607CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt ütemterve" sheetId="1" r:id="rId1"/>
     <sheet name="Projekt ütemterve (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projekt ütemterve (3)" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Projekt ütemterve (2)'!$2:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Projekt ütemterve (3)'!$2:$5</definedName>
     <definedName name="_xlnm.Print_Titles">'Projekt ütemterve'!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>1. hét</t>
   </si>
@@ -47,31 +49,7 @@
     <t>3. hét</t>
   </si>
   <si>
-    <t>hét 4</t>
-  </si>
-  <si>
-    <t>információgyűjtés az esőerdőről</t>
-  </si>
-  <si>
     <t>kész</t>
-  </si>
-  <si>
-    <t>eszközök összegyűjtése a bemutatóhoz</t>
-  </si>
-  <si>
-    <t>vázlatok elkészítése</t>
-  </si>
-  <si>
-    <t>folyamatban</t>
-  </si>
-  <si>
-    <t>bemutató véglegesítése</t>
-  </si>
-  <si>
-    <t>nincs elindítva</t>
-  </si>
-  <si>
-    <t>bemutatóvázlat elkészítése</t>
   </si>
   <si>
     <t>állapot</t>
@@ -82,17 +60,112 @@
   <si>
     <t>4. hét</t>
   </si>
+  <si>
+    <t>Funkcionális specifikáció elkészítése
+Egyeztetés a személyes konzulensel</t>
+  </si>
+  <si>
+    <t>Konzulátció a külső partnerrel,
+igényfelmérés</t>
+  </si>
+  <si>
+    <t>Backend létrehozása, környezet kialakítása. Autetnikáció és autorizáció  mint funkció fejlesztésének elkezdése</t>
+  </si>
+  <si>
+    <t>dev és prod profile kialakítása,
+MySql szerver létrehozása.
+Autentikáció és autorizáció befejezése</t>
+  </si>
+  <si>
+    <t>Ismerkedés a 
+frontend technológiákkal</t>
+  </si>
+  <si>
+    <t>5. hét</t>
+  </si>
+  <si>
+    <t>6. hét</t>
+  </si>
+  <si>
+    <t>7. hét</t>
+  </si>
+  <si>
+    <t>8. hét</t>
+  </si>
+  <si>
+    <t>9. hét</t>
+  </si>
+  <si>
+    <t>10. hét</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Security konfigurálása.
+Travis bekötése. </t>
+  </si>
+  <si>
+    <t>Frontend szerver létrehozása, véglegesítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Turnusos" modell kialakítása. Enitások, service-ek, reposiotry-k létrehozása. </t>
+  </si>
+  <si>
+    <t>Frontendes feladatok:
+- Kezdőoldal
+- Bejelentkezés
+- Regisztráció
+- kijelentkezés
+- Személyes oldal</t>
+  </si>
+  <si>
+    <t>Hírfolyam Controller a backenden,
+Képek kezelése/feltöltése</t>
+  </si>
+  <si>
+    <t>Frontendes igazítások</t>
+  </si>
+  <si>
+    <t>Tesztadatok felvétele</t>
+  </si>
+  <si>
+    <t>Üdülő foglaló felület létrehozása</t>
+  </si>
+  <si>
+    <t>bugjavítás. 
+Header rendbeszedése.
+Dockerizálás 
+( + dokcer compose)</t>
+  </si>
+  <si>
+    <t>Üdülő foglalással kapcsolatos
+problémák megoldása</t>
+  </si>
+  <si>
+    <t>Üdülő foglalás
+felülete</t>
+  </si>
+  <si>
+    <t>Igazítás, 
+rendbeszedés, 
+tesztelés,</t>
+  </si>
+  <si>
+    <t>Bemutatás</t>
+  </si>
+  <si>
+    <t>Bemutató
+(diasor)
+készítés</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd/"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -171,13 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
@@ -185,8 +251,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,42 +307,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -308,6 +372,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -318,7 +422,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,33 +471,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,38 +498,32 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,16 +531,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +587,21 @@
     <cellStyle name="Címsor 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Normál" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -716,449 +852,450 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="5" style="1" customWidth="1"/>
+    <col min="1" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="15" width="5" style="1" customWidth="1"/>
     <col min="16" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="15" style="10" customWidth="1"/>
+    <col min="29" max="29" width="15" style="27" customWidth="1"/>
     <col min="30" max="30" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="42" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="43">
-        <f ca="1">TODAY()-48</f>
-        <v>43528</v>
+    <row r="1" spans="1:29" s="27" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="36">
+        <v>43535</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="45" t="s">
-        <v>12</v>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="str">
-        <f ca="1">LOWER(TEXT(A5,"hhh"))</f>
+        <f>LOWER(TEXT(A5,"hhh"))</f>
         <v>márc</v>
       </c>
       <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:G3" ca="1" si="0">IF(TEXT(B5,"hhh")=TEXT(A5,"hhh"),"",LOWER(TEXT(B5,"hhh")))</f>
+        <f t="shared" ref="B3:G3" si="0">IF(TEXT(B5,"hhh")=TEXT(A5,"hhh"),"",LOWER(TEXT(B5,"hhh")))</f>
         <v/>
       </c>
       <c r="C3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H3" s="9" t="str">
-        <f ca="1">LOWER(TEXT(H5,"hhh"))</f>
+        <f>LOWER(TEXT(H5,"hhh"))</f>
         <v>márc</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3:N3" ca="1" si="1">IF(TEXT(I5,"hhh")=TEXT(H5,"hhh"),"",LOWER(TEXT(I5,"hhh")))</f>
+        <f t="shared" ref="I3:N3" si="1">IF(TEXT(I5,"hhh")=TEXT(H5,"hhh"),"",LOWER(TEXT(I5,"hhh")))</f>
         <v/>
       </c>
       <c r="J3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O3" s="7" t="str">
-        <f ca="1">LOWER(TEXT(O5,"hhh"))</f>
+        <f>LOWER(TEXT(O5,"hhh"))</f>
         <v>márc</v>
       </c>
       <c r="P3" s="7" t="str">
-        <f t="shared" ref="P3:U3" ca="1" si="2">IF(TEXT(P5,"hhh")=TEXT(O5,"hhh"),"",LOWER(TEXT(P5,"hhh")))</f>
+        <f t="shared" ref="P3:U3" si="2">IF(TEXT(P5,"hhh")=TEXT(O5,"hhh"),"",LOWER(TEXT(P5,"hhh")))</f>
         <v/>
       </c>
       <c r="Q3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V3" s="6" t="str">
-        <f ca="1">LOWER(TEXT(V5,"hhh"))</f>
-        <v>márc</v>
+        <f>LOWER(TEXT(V5,"hhh"))</f>
+        <v>ápr</v>
       </c>
       <c r="W3" s="6" t="str">
-        <f t="shared" ref="W3:AB3" ca="1" si="3">IF(TEXT(W5,"hhh")=TEXT(V5,"hhh"),"",LOWER(TEXT(W5,"hhh")))</f>
+        <f t="shared" ref="W3:AB3" si="3">IF(TEXT(W5,"hhh")=TEXT(V5,"hhh"),"",LOWER(TEXT(W5,"hhh")))</f>
         <v/>
       </c>
       <c r="X3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="AC3" s="40"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC3" s="34"/>
     </row>
     <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f ca="1">LOWER(TEXT(A5,"aaa"))</f>
+        <f>LOWER(TEXT(A5,"aaa"))</f>
         <v>h</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:AB4" ca="1" si="4">LOWER(TEXT(B5,"aaa"))</f>
+        <f t="shared" ref="B4:AB4" si="4">LOWER(TEXT(B5,"aaa"))</f>
         <v>k</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>sze</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>cs</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>szo</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>h</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>k</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>sze</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>cs</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>szo</v>
       </c>
       <c r="N4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
       <c r="O4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>h</v>
       </c>
       <c r="P4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>k</v>
       </c>
       <c r="Q4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>sze</v>
       </c>
       <c r="R4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>cs</v>
       </c>
       <c r="S4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="T4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>szo</v>
       </c>
       <c r="U4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>h</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>k</v>
       </c>
       <c r="X4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>sze</v>
       </c>
       <c r="Y4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>cs</v>
       </c>
       <c r="Z4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="AA4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>szo</v>
       </c>
       <c r="AB4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AC4" s="40"/>
+      <c r="AC4" s="34"/>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <f ca="1">AC1</f>
-        <v>43528</v>
-      </c>
-      <c r="B5" s="25">
-        <f ca="1">A5+1</f>
-        <v>43529</v>
-      </c>
-      <c r="C5" s="25">
-        <f t="shared" ref="C5:O5" ca="1" si="5">B5+1</f>
-        <v>43530</v>
-      </c>
-      <c r="D5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43531</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43532</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43533</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43534</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="A5" s="42">
+        <f>AC1</f>
         <v>43535</v>
       </c>
-      <c r="I5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B5" s="42">
+        <f>A5+1</f>
         <v>43536</v>
       </c>
-      <c r="J5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C5" s="42">
+        <f t="shared" ref="C5:O5" si="5">B5+1</f>
         <v>43537</v>
       </c>
-      <c r="K5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="D5" s="42">
+        <f t="shared" si="5"/>
         <v>43538</v>
       </c>
-      <c r="L5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E5" s="42">
+        <f t="shared" si="5"/>
         <v>43539</v>
       </c>
-      <c r="M5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="F5" s="21">
+        <f t="shared" si="5"/>
         <v>43540</v>
       </c>
-      <c r="N5" s="26">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G5" s="21">
+        <f t="shared" si="5"/>
         <v>43541</v>
       </c>
-      <c r="O5" s="27">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H5" s="22">
+        <f t="shared" si="5"/>
         <v>43542</v>
       </c>
-      <c r="P5" s="27">
-        <f t="shared" ref="P5:V5" ca="1" si="6">O5+1</f>
+      <c r="I5" s="22">
+        <f t="shared" si="5"/>
         <v>43543</v>
       </c>
-      <c r="Q5" s="27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="J5" s="22">
+        <f t="shared" si="5"/>
         <v>43544</v>
       </c>
-      <c r="R5" s="27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="K5" s="22">
+        <f t="shared" si="5"/>
         <v>43545</v>
       </c>
-      <c r="S5" s="27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="L5" s="22">
+        <f t="shared" si="5"/>
         <v>43546</v>
       </c>
-      <c r="T5" s="27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="M5" s="22">
+        <f t="shared" si="5"/>
         <v>43547</v>
       </c>
-      <c r="U5" s="27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N5" s="22">
+        <f t="shared" si="5"/>
         <v>43548</v>
       </c>
-      <c r="V5" s="28">
-        <f t="shared" ca="1" si="6"/>
+      <c r="O5" s="23">
+        <f t="shared" si="5"/>
         <v>43549</v>
       </c>
-      <c r="W5" s="28">
-        <f t="shared" ref="W5:AA5" ca="1" si="7">V5+1</f>
+      <c r="P5" s="23">
+        <f t="shared" ref="P5:V5" si="6">O5+1</f>
         <v>43550</v>
       </c>
-      <c r="X5" s="28">
-        <f t="shared" ca="1" si="7"/>
+      <c r="Q5" s="23">
+        <f t="shared" si="6"/>
         <v>43551</v>
       </c>
-      <c r="Y5" s="28">
-        <f t="shared" ca="1" si="7"/>
+      <c r="R5" s="23">
+        <f t="shared" si="6"/>
         <v>43552</v>
       </c>
-      <c r="Z5" s="28">
-        <f t="shared" ca="1" si="7"/>
+      <c r="S5" s="23">
+        <f t="shared" si="6"/>
         <v>43553</v>
       </c>
-      <c r="AA5" s="28">
-        <f t="shared" ca="1" si="7"/>
+      <c r="T5" s="23">
+        <f t="shared" si="6"/>
         <v>43554</v>
       </c>
-      <c r="AB5" s="28">
-        <f t="shared" ref="AB5" ca="1" si="8">AA5+1</f>
+      <c r="U5" s="23">
+        <f t="shared" si="6"/>
         <v>43555</v>
       </c>
-      <c r="AC5" s="41"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20"/>
+      <c r="V5" s="24">
+        <f t="shared" si="6"/>
+        <v>43556</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" ref="W5:AA5" si="7">V5+1</f>
+        <v>43557</v>
+      </c>
+      <c r="X5" s="24">
+        <f t="shared" si="7"/>
+        <v>43558</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="7"/>
+        <v>43559</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="7"/>
+        <v>43560</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="7"/>
+        <v>43561</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" ref="AB5" si="8">AA5+1</f>
+        <v>43562</v>
+      </c>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
@@ -1166,7 +1303,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="14"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
@@ -1181,25 +1318,25 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="20"/>
+      <c r="AC6" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="14"/>
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
@@ -1216,26 +1353,26 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="H8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="15"/>
       <c r="O8" s="14"/>
       <c r="P8" s="15"/>
@@ -1251,11 +1388,11 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
@@ -1266,19 +1403,19 @@
       <c r="H9" s="15"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
       <c r="V9" s="15"/>
       <c r="W9" s="14"/>
       <c r="X9" s="15"/>
@@ -1286,11 +1423,11 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -1311,18 +1448,18 @@
       <c r="R10" s="15"/>
       <c r="S10" s="14"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="11" t="s">
-        <v>10</v>
+      <c r="AC10" s="37" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,7 +1491,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="15"/>
-      <c r="AC11" s="11"/>
+      <c r="AC11" s="37"/>
     </row>
     <row r="12" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
@@ -1385,7 +1522,7 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="11"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
@@ -1416,7 +1553,1170 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="15"/>
-      <c r="AC13" s="11"/>
+      <c r="AC13" s="37"/>
+    </row>
+    <row r="14" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="37"/>
+    </row>
+    <row r="15" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="37"/>
+    </row>
+    <row r="16" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="37"/>
+    </row>
+    <row r="17" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="37"/>
+    </row>
+    <row r="18" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="37"/>
+    </row>
+    <row r="19" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="37"/>
+    </row>
+    <row r="20" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="37"/>
+    </row>
+    <row r="21" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="38"/>
+    </row>
+    <row r="22" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="37"/>
+    </row>
+    <row r="23" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="38"/>
+    </row>
+    <row r="24" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="37"/>
+    </row>
+    <row r="25" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="38"/>
+    </row>
+    <row r="26" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:AB5">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>A$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;P/&amp;N. oldal</oddFooter>
+  </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="H3 O3 V3" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F32E3-A05E-479B-8B6A-9C5164670184}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="7.125" customWidth="1"/>
+    <col min="26" max="26" width="6.25" customWidth="1"/>
+    <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="28" max="28" width="5" customWidth="1"/>
+    <col min="29" max="29" width="15" style="10" customWidth="1"/>
+    <col min="30" max="30" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="27" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="36">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="str">
+        <f>LOWER(TEXT(A5,"hhh"))</f>
+        <v>ápr</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:G3" si="0">IF(TEXT(B5,"hhh")=TEXT(A5,"hhh"),"",LOWER(TEXT(B5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f>LOWER(TEXT(H5,"hhh"))</f>
+        <v>ápr</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3:N3" si="1">IF(TEXT(I5,"hhh")=TEXT(H5,"hhh"),"",LOWER(TEXT(I5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f>LOWER(TEXT(O5,"hhh"))</f>
+        <v>ápr</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f t="shared" ref="P3:U3" si="2">IF(TEXT(P5,"hhh")=TEXT(O5,"hhh"),"",LOWER(TEXT(P5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V3" s="6" t="str">
+        <f>LOWER(TEXT(V5,"hhh"))</f>
+        <v>ápr</v>
+      </c>
+      <c r="W3" s="6" t="str">
+        <f t="shared" ref="W3:AB3" si="3">IF(TEXT(W5,"hhh")=TEXT(V5,"hhh"),"",LOWER(TEXT(W5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="X3" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>máj</v>
+      </c>
+      <c r="Y3" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z3" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA3" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB3" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC3" s="25"/>
+    </row>
+    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
+        <f>LOWER(TEXT(A5,"aaa"))</f>
+        <v>h</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:AB4" si="4">LOWER(TEXT(B5,"aaa"))</f>
+        <v>k</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>sze</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>cs</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>szo</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>h</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>k</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>sze</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>cs</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>szo</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>h</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>k</v>
+      </c>
+      <c r="Q4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>sze</v>
+      </c>
+      <c r="R4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>cs</v>
+      </c>
+      <c r="S4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="T4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>szo</v>
+      </c>
+      <c r="U4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>h</v>
+      </c>
+      <c r="W4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>k</v>
+      </c>
+      <c r="X4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>sze</v>
+      </c>
+      <c r="Y4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>cs</v>
+      </c>
+      <c r="Z4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="AA4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>szo</v>
+      </c>
+      <c r="AB4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="AC4" s="25"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <f>AC1</f>
+        <v>43563</v>
+      </c>
+      <c r="B5" s="42">
+        <f>A5+1</f>
+        <v>43564</v>
+      </c>
+      <c r="C5" s="42">
+        <f t="shared" ref="C5:AB5" si="5">B5+1</f>
+        <v>43565</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" si="5"/>
+        <v>43566</v>
+      </c>
+      <c r="E5" s="42">
+        <f t="shared" si="5"/>
+        <v>43567</v>
+      </c>
+      <c r="F5" s="42">
+        <f t="shared" si="5"/>
+        <v>43568</v>
+      </c>
+      <c r="G5" s="42">
+        <f t="shared" si="5"/>
+        <v>43569</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="5"/>
+        <v>43570</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="5"/>
+        <v>43571</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="5"/>
+        <v>43572</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="5"/>
+        <v>43573</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="5"/>
+        <v>43574</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="5"/>
+        <v>43575</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="5"/>
+        <v>43576</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="5"/>
+        <v>43577</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="5"/>
+        <v>43578</v>
+      </c>
+      <c r="Q5" s="23">
+        <f t="shared" si="5"/>
+        <v>43579</v>
+      </c>
+      <c r="R5" s="23">
+        <f t="shared" si="5"/>
+        <v>43580</v>
+      </c>
+      <c r="S5" s="23">
+        <f t="shared" si="5"/>
+        <v>43581</v>
+      </c>
+      <c r="T5" s="23">
+        <f t="shared" si="5"/>
+        <v>43582</v>
+      </c>
+      <c r="U5" s="23">
+        <f t="shared" si="5"/>
+        <v>43583</v>
+      </c>
+      <c r="V5" s="24">
+        <f t="shared" si="5"/>
+        <v>43584</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" si="5"/>
+        <v>43585</v>
+      </c>
+      <c r="X5" s="24">
+        <f t="shared" si="5"/>
+        <v>43586</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="5"/>
+        <v>43587</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="5"/>
+        <v>43588</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="5"/>
+        <v>43589</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" si="5"/>
+        <v>43590</v>
+      </c>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
@@ -1636,34 +2936,34 @@
       <c r="AC20" s="11"/>
     </row>
     <row r="21" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="17"/>
       <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,34 +2998,34 @@
       <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="17"/>
       <c r="AC23" s="12"/>
     </row>
     <row r="24" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,34 +3060,34 @@
       <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="17"/>
       <c r="AC25" s="12"/>
     </row>
     <row r="26" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,13 +3122,19 @@
       <c r="AC26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:U2"/>
     <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="AC2:AC5"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:AB5">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -1837,18 +3143,15 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;P/&amp;N. oldal</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="H3 O3 V3" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F32E3-A05E-479B-8B6A-9C5164670184}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C677EAD1-2F5E-40C9-AABA-E8FEA02A5300}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1856,580 +3159,345 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
     <col min="16" max="28" width="5" customWidth="1"/>
     <col min="29" max="29" width="15" style="10" customWidth="1"/>
     <col min="30" max="30" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="42" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="43">
-        <f ca="1">TODAY()-20</f>
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="s">
+    <row r="1" spans="1:28" s="27" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="36">
+        <v>43591</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+    </row>
+    <row r="2" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="str">
+        <f>LOWER(TEXT(A5,"hhh"))</f>
+        <v>máj</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:G3" si="0">IF(TEXT(B5,"hhh")=TEXT(A5,"hhh"),"",LOWER(TEXT(B5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f>LOWER(TEXT(H5,"hhh"))</f>
+        <v>máj</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3:N3" si="1">IF(TEXT(I5,"hhh")=TEXT(H5,"hhh"),"",LOWER(TEXT(I5,"hhh")))</f>
+        <v/>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
+        <f>LOWER(TEXT(A5,"aaa"))</f>
+        <v>h</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:AB4" si="2">LOWER(TEXT(B5,"aaa"))</f>
+        <v>k</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>sze</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cs</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>szo</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>v</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>h</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>k</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>sze</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>cs</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>szo</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>v</v>
+      </c>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <f>O1</f>
+        <v>43591</v>
+      </c>
+      <c r="B5" s="42">
+        <f>A5+1</f>
+        <v>43592</v>
+      </c>
+      <c r="C5" s="42">
+        <f t="shared" ref="C5:AB5" si="3">B5+1</f>
+        <v>43593</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="3"/>
+        <v>43594</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="3"/>
+        <v>43595</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>43596</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="3"/>
+        <v>43597</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="3"/>
+        <v>43598</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="3"/>
+        <v>43599</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="3"/>
+        <v>43600</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="3"/>
+        <v>43601</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="3"/>
+        <v>43602</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="3"/>
+        <v>43603</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="3"/>
+        <v>43604</v>
+      </c>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="str">
-        <f ca="1">LOWER(TEXT(A5,"hhh"))</f>
-        <v>ápr</v>
-      </c>
-      <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:G3" ca="1" si="0">IF(TEXT(B5,"hhh")=TEXT(A5,"hhh"),"",LOWER(TEXT(B5,"hhh")))</f>
-        <v/>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="H3" s="9" t="str">
-        <f ca="1">LOWER(TEXT(H5,"hhh"))</f>
-        <v>ápr</v>
-      </c>
-      <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3:N3" ca="1" si="1">IF(TEXT(I5,"hhh")=TEXT(H5,"hhh"),"",LOWER(TEXT(I5,"hhh")))</f>
-        <v/>
-      </c>
-      <c r="J3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="L3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="M3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="N3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="O3" s="7" t="str">
-        <f ca="1">LOWER(TEXT(O5,"hhh"))</f>
-        <v>ápr</v>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f t="shared" ref="P3:U3" ca="1" si="2">IF(TEXT(P5,"hhh")=TEXT(O5,"hhh"),"",LOWER(TEXT(P5,"hhh")))</f>
-        <v/>
-      </c>
-      <c r="Q3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="T3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="U3" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="V3" s="6" t="str">
-        <f ca="1">LOWER(TEXT(V5,"hhh"))</f>
-        <v>ápr</v>
-      </c>
-      <c r="W3" s="6" t="str">
-        <f t="shared" ref="W3:AB3" ca="1" si="3">IF(TEXT(W5,"hhh")=TEXT(V5,"hhh"),"",LOWER(TEXT(W5,"hhh")))</f>
-        <v/>
-      </c>
-      <c r="X3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Y3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Z3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="AA3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="AB3" s="6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="AC3" s="40"/>
-    </row>
-    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
-        <f ca="1">LOWER(TEXT(A5,"aaa"))</f>
-        <v>h</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:AB4" ca="1" si="4">LOWER(TEXT(B5,"aaa"))</f>
-        <v>k</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>sze</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>cs</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>p</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>szo</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>h</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>k</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>sze</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>cs</v>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>p</v>
-      </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>szo</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="O4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>h</v>
-      </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>k</v>
-      </c>
-      <c r="Q4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>sze</v>
-      </c>
-      <c r="R4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>cs</v>
-      </c>
-      <c r="S4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>p</v>
-      </c>
-      <c r="T4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>szo</v>
-      </c>
-      <c r="U4" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="V4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>h</v>
-      </c>
-      <c r="W4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>k</v>
-      </c>
-      <c r="X4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>sze</v>
-      </c>
-      <c r="Y4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>cs</v>
-      </c>
-      <c r="Z4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>p</v>
-      </c>
-      <c r="AA4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>szo</v>
-      </c>
-      <c r="AB4" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="AC4" s="40"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <f ca="1">AC1</f>
-        <v>43556</v>
-      </c>
-      <c r="B5" s="25">
-        <f ca="1">A5+1</f>
-        <v>43557</v>
-      </c>
-      <c r="C5" s="25">
-        <f t="shared" ref="C5:AB5" ca="1" si="5">B5+1</f>
-        <v>43558</v>
-      </c>
-      <c r="D5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43559</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43560</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43561</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>43562</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43563</v>
-      </c>
-      <c r="I5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43564</v>
-      </c>
-      <c r="J5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43565</v>
-      </c>
-      <c r="K5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43566</v>
-      </c>
-      <c r="L5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43567</v>
-      </c>
-      <c r="M5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43568</v>
-      </c>
-      <c r="N5" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>43569</v>
-      </c>
-      <c r="O5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43570</v>
-      </c>
-      <c r="P5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43571</v>
-      </c>
-      <c r="Q5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43572</v>
-      </c>
-      <c r="R5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43573</v>
-      </c>
-      <c r="S5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43574</v>
-      </c>
-      <c r="T5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43575</v>
-      </c>
-      <c r="U5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>43576</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43577</v>
-      </c>
-      <c r="W5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43578</v>
-      </c>
-      <c r="X5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43579</v>
-      </c>
-      <c r="Y5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43580</v>
-      </c>
-      <c r="Z5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43581</v>
-      </c>
-      <c r="AA5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43582</v>
-      </c>
-      <c r="AB5" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>43583</v>
-      </c>
-      <c r="AC5" s="41"/>
-    </row>
-    <row r="6" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="20"/>
+    </row>
+    <row r="7" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="14"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -2437,34 +3505,18 @@
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="L10" s="15"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -2475,27 +3527,15 @@
       <c r="H11" s="15"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="11"/>
-    </row>
-    <row r="12" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -2508,25 +3548,11 @@
       <c r="J12" s="15"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="11"/>
-    </row>
-    <row r="13" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
@@ -2541,23 +3567,9 @@
       <c r="L13" s="15"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="11"/>
-    </row>
-    <row r="14" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
@@ -2572,23 +3584,9 @@
       <c r="L14" s="15"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="11"/>
-    </row>
-    <row r="15" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -2603,23 +3601,9 @@
       <c r="L15" s="15"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="11"/>
-    </row>
-    <row r="16" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -2634,23 +3618,9 @@
       <c r="L16" s="15"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="11"/>
-    </row>
-    <row r="17" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
@@ -2665,23 +3635,9 @@
       <c r="L17" s="15"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="11"/>
-    </row>
-    <row r="18" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -2696,23 +3652,9 @@
       <c r="L18" s="15"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="11"/>
-    </row>
-    <row r="19" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
@@ -2727,23 +3669,9 @@
       <c r="L19" s="15"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="11"/>
-    </row>
-    <row r="20" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
@@ -2758,54 +3686,26 @@
       <c r="L20" s="15"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="11"/>
-    </row>
-    <row r="21" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="12"/>
-    </row>
-    <row r="22" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -2820,54 +3720,26 @@
       <c r="L22" s="15"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="11"/>
-    </row>
-    <row r="23" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="12"/>
-    </row>
-    <row r="24" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
@@ -2882,54 +3754,26 @@
       <c r="L24" s="15"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="11"/>
-    </row>
-    <row r="25" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="12"/>
-    </row>
-    <row r="26" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
@@ -2944,32 +3788,19 @@
       <c r="L26" s="15"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:AB1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:AB5">
+  <conditionalFormatting sqref="A4:N5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>A$5=TODAY()</formula>
     </cfRule>
